--- a/biology/Botanique/Magnolia_cubensis/Magnolia_cubensis.xlsx
+++ b/biology/Botanique/Magnolia_cubensis/Magnolia_cubensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia cubensis est une espèce de plantes à fleurs de la famille des Magnoliacées endémique de Cuba.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Cuba. Elle pousse dans la forêt tropicale humide de montagne[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Cuba. Elle pousse dans la forêt tropicale humide de montagne.
 </t>
         </is>
       </c>
@@ -573,19 +589,21 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (31 décembre 2013)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (31 décembre 2013) :
 Magnolia cubensis Urb. (1899)
 sous-espèce Magnolia cubensis subsp. acunae Imkhan. (1974)
 sous-espèce Magnolia cubensis subsp. cacuminicola (Bisse) G.Klotz, Wiss. Z. Friedrich-Schiller-Univ. Jena (1980)
 sous-espèce Magnolia cubensis subsp. cubensis
 sous-espèce Magnolia cubensis subsp. turquinensis Imkhan. (1991)
-Selon The Plant List            (31 décembre 2013)[4] :
+Selon The Plant List            (31 décembre 2013) :
 sous-espèce Magnolia cubensis subsp. acunae Imkhan.
 sous-espèce Magnolia cubensis subsp. cacuminicola (Bisse) G.Klotz
 sous-espèce Magnolia cubensis subsp. cubensis
-Selon Tropicos                                           (31 décembre 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (31 décembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Magnolia cubensis subsp. acunae Imkhan.
 sous-espèce Magnolia cubensis subsp. cacuminicola (Bisse) G. Klotz
 sous-espèce Magnolia cubensis subsp. cubensis
